--- a/data/or.xlsx
+++ b/data/or.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - Universidad EIA\Documentos\github_SI\SI_2023_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C21293-E14D-49AB-8705-1183310A7992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB48733-397D-4AF9-A3E0-A1D337740141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>X0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>X1</t>
   </si>
@@ -68,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -77,9 +74,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -89,30 +84,12 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -123,17 +100,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -160,16 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -454,7 +417,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,74 +426,59 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
+      <c r="A3">
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K7" s="9"/>
+      <c r="K7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
